--- a/biology/Botanique/Dendropanax/Dendropanax.xlsx
+++ b/biology/Botanique/Dendropanax/Dendropanax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendropanax est un genre de plantes de la famille des Araliaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (22 avril 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (22 avril 2019) :
 Dendropanax alberti-smithii Nevling
 Dendropanax amorimii Fiaschi
 Dendropanax amplifolius (I.M.Johnst.) Frodin
@@ -612,7 +626,7 @@
 Dendropanax weberbaueri (Harms) Harms
 Dendropanax williamsii (Harms) Harms
 Dendropanax yunnanensis C.J.Tseng &amp; G.Hoo
-Selon World Checklist of Selected Plant Families (WCSP)  (22 avril 2019)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (22 avril 2019) :
 Dendropanax alberti-smithii Nevling (1959)
 Dendropanax amorimii Fiaschi (2005)
 Dendropanax amplifolius (I.M.Johnst.) Frodin (2003 publ. 2004)
@@ -711,7 +725,7 @@
 Dendropanax weberbaueri (Harms) Harms (1942)
 Dendropanax williamsii (Harms) Harms (1942)
 Dendropanax yunnanensis C.J.Tseng &amp; G.Hoo, Acta Phytotax. Sin. (1965)
-Selon The Plant List            (22 avril 2019)[4] :
+Selon The Plant List            (22 avril 2019) :
 Dendropanax alberti-smithii Nevling
 Dendropanax amorimii Fiaschi
 Dendropanax amplifolius (I.M.Johnst.) Frodin
@@ -811,7 +825,7 @@
 Dendropanax weberbaueri (Harms) Harms
 Dendropanax williamsii (Harms) Harms
 Dendropanax yunnanensis C.J.Tseng &amp; G.Hoo
-Selon Tropicos                                           (22 avril 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (22 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 Dendropanax acuminatissimus Merr.
 Dendropanax affinis (Marchal) Gamerro &amp; Zuloaga
 Dendropanax alaris (Schltdl.) Decne. &amp; Planch.
